--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06459610091256614</v>
+        <v>0.05801570998800794</v>
       </c>
       <c r="H2" t="n">
-        <v>37.71897560830143</v>
+        <v>23.68957314546603</v>
       </c>
       <c r="I2" t="n">
-        <v>2.125903731870998</v>
+        <v>-4.512958750012374</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04771658458995838</v>
+        <v>0.02618921323035567</v>
       </c>
       <c r="H3" t="n">
-        <v>-34.0988949913376</v>
+        <v>-63.83022577958938</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08570023900802105</v>
+        <v>0.07929124686653789</v>
       </c>
       <c r="H4" t="n">
-        <v>50.93722607216955</v>
+        <v>39.64956215254777</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04147044711172014</v>
+        <v>0.02153190535507788</v>
       </c>
       <c r="H5" t="n">
-        <v>189.7172813658011</v>
+        <v>50.42435075014906</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01802447850463618</v>
+        <v>0.003489448926556768</v>
       </c>
       <c r="H6" t="n">
-        <v>-25.10156031474696</v>
+        <v>114.4999634742974</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009066528909674642</v>
+        <v>0.0190269798424117</v>
       </c>
       <c r="H7" t="n">
-        <v>-127.3600628027878</v>
+        <v>157.4177139478667</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006743126718485511</v>
+        <v>0.01918252542080588</v>
       </c>
       <c r="H8" t="n">
-        <v>-121.5269237783602</v>
+        <v>-38.76123349749388</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02905034923199358</v>
+        <v>0.03476261944527925</v>
       </c>
       <c r="H9" t="n">
-        <v>77.75903192258153</v>
+        <v>112.7124025373339</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1367119396055845</v>
+        <v>-0.1371293773599172</v>
       </c>
       <c r="H10" t="n">
-        <v>-13.80010122892707</v>
+        <v>13.53689750092413</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1204257592307667</v>
+        <v>-0.1589804158929685</v>
       </c>
       <c r="H11" t="n">
-        <v>-25.86446191827896</v>
+        <v>2.129754032973786</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07849182255102903</v>
+        <v>-0.105637501934655</v>
       </c>
       <c r="H12" t="n">
-        <v>29.58784166511083</v>
+        <v>-74.40461222194467</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04896248894166476</v>
+        <v>-0.06817984201697395</v>
       </c>
       <c r="H13" t="n">
-        <v>-48.97532182593111</v>
+        <v>28.94857732784463</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05990548696558761</v>
+        <v>-0.04641547282517424</v>
       </c>
       <c r="H14" t="n">
-        <v>-31.98419742890103</v>
+        <v>47.30055966768496</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09237269684413976</v>
+        <v>-0.08023224685050057</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.259698485236489</v>
+        <v>18.57989137566249</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2776985302179208</v>
+        <v>-0.3138110208272471</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.03661500471354</v>
+        <v>-1.662409449164661</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2804892974270976</v>
+        <v>-0.2874553201476417</v>
       </c>
       <c r="H17" t="n">
-        <v>-10.2568714769528</v>
+        <v>8.028078157426089</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1661219064320585</v>
+        <v>-0.1889581126049299</v>
       </c>
       <c r="H18" t="n">
-        <v>16.50208742592381</v>
+        <v>-32.51722802459238</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1916076091572773</v>
+        <v>-0.1268742959111323</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56314073948952</v>
+        <v>18.18181673034321</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1120516902643691</v>
+        <v>0.1188365754311758</v>
       </c>
       <c r="H20" t="n">
-        <v>-20.98548490306364</v>
+        <v>-16.20104648737558</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2336389934410449</v>
+        <v>0.2557917144282116</v>
       </c>
       <c r="H21" t="n">
-        <v>26.40096456887561</v>
+        <v>38.38580177161595</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1361963466317559</v>
+        <v>0.1570309552368667</v>
       </c>
       <c r="H22" t="n">
-        <v>-25.97860126771608</v>
+        <v>-14.6551927539785</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2250175150338575</v>
+        <v>0.233313317206207</v>
       </c>
       <c r="H23" t="n">
-        <v>34.66274295638016</v>
+        <v>39.62740304243609</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06923925165772109</v>
+        <v>0.06156127719980787</v>
       </c>
       <c r="H24" t="n">
-        <v>7.913738548107593</v>
+        <v>-4.052868663741149</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04449693213969298</v>
+        <v>0.05911327259898704</v>
       </c>
       <c r="H25" t="n">
-        <v>35.31249199996105</v>
+        <v>79.75990345875428</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01916476037053357</v>
+        <v>0.03850647493803609</v>
       </c>
       <c r="H26" t="n">
-        <v>-64.51681814681729</v>
+        <v>-28.70600903248772</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03352632789192594</v>
+        <v>0.06425959495283404</v>
       </c>
       <c r="H27" t="n">
-        <v>-47.88762917723924</v>
+        <v>-0.1167126952499682</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07319082986224665</v>
+        <v>-0.06808248899698113</v>
       </c>
       <c r="H28" t="n">
-        <v>23.46218635741456</v>
+        <v>-14.84516516675951</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07559079101255817</v>
+        <v>-0.0769961137854183</v>
       </c>
       <c r="H29" t="n">
-        <v>43.13319374209365</v>
+        <v>-45.79421017046452</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04720186650120487</v>
+        <v>0.04631090398696186</v>
       </c>
       <c r="H30" t="n">
-        <v>-38.69425889747532</v>
+        <v>-39.85144019726231</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09905948574711969</v>
+        <v>0.05520587382505127</v>
       </c>
       <c r="H31" t="n">
-        <v>61.98282871835117</v>
+        <v>-9.726932896881097</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1075062083426562</v>
+        <v>0.09418016099688986</v>
       </c>
       <c r="H32" t="n">
-        <v>46.36878370974907</v>
+        <v>28.22548415776938</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09939358551004294</v>
+        <v>0.07951428583412468</v>
       </c>
       <c r="H33" t="n">
-        <v>-21.24078860878137</v>
+        <v>-36.99309251703339</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02678089056539249</v>
+        <v>0.03593101813296511</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.159169635142205</v>
+        <v>31.26974405126721</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03583086263808288</v>
+        <v>0.02425924201381336</v>
       </c>
       <c r="H35" t="n">
-        <v>32.55581296835589</v>
+        <v>-10.25324788805643</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01415730242022881</v>
+        <v>0.02467860660003041</v>
       </c>
       <c r="H36" t="n">
-        <v>-58.62271361890635</v>
+        <v>-27.87229215950431</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06866936976106323</v>
+        <v>0.05177316093980693</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.067523424913466</v>
+        <v>-25.41001832814364</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2479237214839675</v>
+        <v>-0.2563907596259163</v>
       </c>
       <c r="H38" t="n">
-        <v>3.178506163864039</v>
+        <v>-6.702236535002528</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2737248832702741</v>
+        <v>-0.242339445822569</v>
       </c>
       <c r="H39" t="n">
-        <v>1.868104151257366</v>
+        <v>9.812145640277766</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1301035903812548</v>
+        <v>0.1275803107133267</v>
       </c>
       <c r="H40" t="n">
-        <v>4.120906824255682</v>
+        <v>2.101545433643875</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1448624021656501</v>
+        <v>0.1397205733766587</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.942363035906942</v>
+        <v>-5.422876772976516</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1246901154255975</v>
+        <v>0.1159415338433903</v>
       </c>
       <c r="H42" t="n">
-        <v>4.502567261457781</v>
+        <v>-2.829603633696221</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1364083526150736</v>
+        <v>0.1572102232917149</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.48385506080261</v>
+        <v>12.38706887472796</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.09885560737646809</v>
+        <v>-0.1234950226536425</v>
       </c>
       <c r="H44" t="n">
-        <v>6.517714756469458</v>
+        <v>-33.06688356856673</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1186003849636534</v>
+        <v>-0.1343148763717318</v>
       </c>
       <c r="H45" t="n">
-        <v>-12.59123162819158</v>
+        <v>1.009613743979377</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09039085726297318</v>
+        <v>0.1080172502309526</v>
       </c>
       <c r="H46" t="n">
-        <v>-24.45454172634644</v>
+        <v>-9.723030434186459</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1167321689229452</v>
+        <v>0.1147777674887009</v>
       </c>
       <c r="H47" t="n">
-        <v>8.266354498358551</v>
+        <v>6.453692911888174</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04305312149753209</v>
+        <v>0.02549551561796576</v>
       </c>
       <c r="H48" t="n">
-        <v>364.3737968097496</v>
+        <v>174.9963063611008</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04471874185115503</v>
+        <v>0.04199593458337898</v>
       </c>
       <c r="H49" t="n">
-        <v>-23.48435181601941</v>
+        <v>-28.14318957284588</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01149536772389014</v>
+        <v>0.02199379136026544</v>
       </c>
       <c r="H50" t="n">
-        <v>-66.68039032281156</v>
+        <v>-36.25044791541743</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03736687424203831</v>
+        <v>0.04007954068550663</v>
       </c>
       <c r="H51" t="n">
-        <v>-4.937965968175227</v>
+        <v>1.963108713524132</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01334472105339114</v>
+        <v>-0.004008149859871878</v>
       </c>
       <c r="H52" t="n">
-        <v>116.6869166773613</v>
+        <v>34.917063365987</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02313354469301379</v>
+        <v>-0.004427346560307322</v>
       </c>
       <c r="H53" t="n">
-        <v>384.5063493773146</v>
+        <v>7.274153277058591</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09273900956370204</v>
+        <v>0.08478254899380001</v>
       </c>
       <c r="H54" t="n">
-        <v>110.0213369277882</v>
+        <v>92.00274373851937</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08114626674045347</v>
+        <v>0.06617259308948756</v>
       </c>
       <c r="H55" t="n">
-        <v>2.368606809662045</v>
+        <v>-16.52116066879386</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1004426621731765</v>
+        <v>0.08632031976216663</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3697895548337135</v>
+        <v>-13.74230689050423</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06047610788679093</v>
+        <v>0.08704899505567754</v>
       </c>
       <c r="H57" t="n">
-        <v>-45.21260471479739</v>
+        <v>-21.13930826661664</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0170874222367238</v>
+        <v>0.006424089236419152</v>
       </c>
       <c r="H58" t="n">
-        <v>2715.452234935715</v>
+        <v>958.4812704652032</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02980315057901382</v>
+        <v>0.02199565454351642</v>
       </c>
       <c r="H59" t="n">
-        <v>375.4207372836111</v>
+        <v>250.8753301900142</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.008865452734067376</v>
+        <v>0.01195513749532255</v>
       </c>
       <c r="H60" t="n">
-        <v>3.378656376784515</v>
+        <v>39.4069866637416</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.01257666949346031</v>
+        <v>0.006115672656045603</v>
       </c>
       <c r="H61" t="n">
-        <v>-11.25663302932174</v>
+        <v>143.1533470025755</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.03536477198652464</v>
+        <v>-0.02938514959038555</v>
       </c>
       <c r="H62" t="n">
-        <v>-26.64100435809176</v>
+        <v>39.04484774963889</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.03339038186501261</v>
+        <v>-0.04432570233174669</v>
       </c>
       <c r="H63" t="n">
-        <v>-58.57764368987375</v>
+        <v>45.01185871114289</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08249234609351742</v>
+        <v>0.05557707503474998</v>
       </c>
       <c r="H64" t="n">
-        <v>33.60872774664469</v>
+        <v>-9.984590826708409</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08756475952980161</v>
+        <v>0.0768238019579137</v>
       </c>
       <c r="H65" t="n">
-        <v>31.42021264659178</v>
+        <v>15.29981289096732</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2044656947136836</v>
+        <v>0.1798468407179752</v>
       </c>
       <c r="H66" t="n">
-        <v>-4.066120607391019</v>
+        <v>-15.61711537605272</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2123817062500072</v>
+        <v>0.2229863205273689</v>
       </c>
       <c r="H67" t="n">
-        <v>-4.185485322325939</v>
+        <v>0.5987119057218396</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09360908681762641</v>
+        <v>-0.1050876777988762</v>
       </c>
       <c r="H68" t="n">
-        <v>8.683110271876416</v>
+        <v>-22.01011742249025</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07565103328991364</v>
+        <v>-0.07816630033172745</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.532363824377271</v>
+        <v>-1.741516110728361</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1902704399509301</v>
+        <v>-0.1451547727374596</v>
       </c>
       <c r="H70" t="n">
-        <v>37.04113729569509</v>
+        <v>-4.546849972963349</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1350488924204776</v>
+        <v>-0.1100398199694621</v>
       </c>
       <c r="H71" t="n">
-        <v>-7.795485704270974</v>
+        <v>24.87040825271335</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.163019688591209</v>
+        <v>0.1564374980759013</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.441348317304239</v>
+        <v>-5.420817471696544</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1335312118614384</v>
+        <v>0.1454024488683665</v>
       </c>
       <c r="H73" t="n">
-        <v>-7.309011913763347</v>
+        <v>0.9314336917170691</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06438534696336283</v>
+        <v>-0.03730553212597289</v>
       </c>
       <c r="H74" t="n">
-        <v>143.4861803708014</v>
+        <v>-41.07839675418811</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04523196323405908</v>
+        <v>-0.04791554444941214</v>
       </c>
       <c r="H75" t="n">
-        <v>23.13231298652519</v>
+        <v>-30.43766828193273</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.007883996375296314</v>
+        <v>0.0006184509525634008</v>
       </c>
       <c r="H76" t="n">
-        <v>-67.30209440471265</v>
+        <v>-97.43505071544715</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0159842330405239</v>
+        <v>0.0006527120072067959</v>
       </c>
       <c r="H77" t="n">
-        <v>-267.5321214823992</v>
+        <v>106.8411306946765</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07442540593596622</v>
+        <v>0.06068633566572244</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.828364554119781</v>
+        <v>-19.95103356712007</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09295143873478121</v>
+        <v>0.08109734019664319</v>
       </c>
       <c r="H79" t="n">
-        <v>16.09661208192425</v>
+        <v>1.290809199304096</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07532137521918303</v>
+        <v>0.06706576457418698</v>
       </c>
       <c r="H80" t="n">
-        <v>15.47696001973652</v>
+        <v>2.820090470866107</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06053222270188969</v>
+        <v>0.07143408608923214</v>
       </c>
       <c r="H81" t="n">
-        <v>62.87452155222598</v>
+        <v>92.20825000270464</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05624528819654064</v>
+        <v>0.05834168358596916</v>
       </c>
       <c r="H82" t="n">
-        <v>-3.074120108704411</v>
+        <v>0.5385374886818861</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07484725019338198</v>
+        <v>0.07068378843440165</v>
       </c>
       <c r="H83" t="n">
-        <v>16.92952235232961</v>
+        <v>10.42518727586469</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.01021945334020143</v>
+        <v>-0.02777862620871726</v>
       </c>
       <c r="H84" t="n">
-        <v>22.63696944874967</v>
+        <v>-233.3531080655189</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01647987439127686</v>
+        <v>-0.006018972365204528</v>
       </c>
       <c r="H85" t="n">
-        <v>325.6813705428277</v>
+        <v>-55.47232611407983</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03410487284275071</v>
+        <v>0.01671599776346748</v>
       </c>
       <c r="H86" t="n">
-        <v>34.87034360215934</v>
+        <v>-33.89530075638449</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05111497940022845</v>
+        <v>0.02953649434909315</v>
       </c>
       <c r="H87" t="n">
-        <v>72.67192065120581</v>
+        <v>-0.2225322516982791</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.009562424064665957</v>
+        <v>-0.03059334266060804</v>
       </c>
       <c r="H88" t="n">
-        <v>-50.1195032763686</v>
+        <v>-59.58413034474643</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01113535244715558</v>
+        <v>-0.01019893498443096</v>
       </c>
       <c r="H89" t="n">
-        <v>-30.722760873046</v>
+        <v>36.54856807543948</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04328040418339801</v>
+        <v>-0.05198583203672152</v>
       </c>
       <c r="H90" t="n">
-        <v>59.18163240237605</v>
+        <v>-91.19945299806975</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01958433104665835</v>
+        <v>-0.03392878394898997</v>
       </c>
       <c r="H91" t="n">
-        <v>-856.7583024437997</v>
+        <v>-1411.042428972887</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>0.007194826602050029</v>
+        <v>-0.01201046318395857</v>
       </c>
       <c r="H92" t="n">
-        <v>-132.4359716034484</v>
+        <v>45.85400533931671</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05701657533163909</v>
+        <v>-0.007669711045574366</v>
       </c>
       <c r="H93" t="n">
-        <v>18.80933698085392</v>
+        <v>84.01809861677593</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0002390218428536951</v>
+        <v>0.0125318477061189</v>
       </c>
       <c r="H94" t="n">
-        <v>-101.6558051032473</v>
+        <v>-13.18660613954744</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02542341082002397</v>
+        <v>0.01730942008243278</v>
       </c>
       <c r="H95" t="n">
-        <v>-7.789534734386068</v>
+        <v>-37.21890069832954</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1388819042600082</v>
+        <v>-0.1334643468194203</v>
       </c>
       <c r="H96" t="n">
-        <v>18.23602006676226</v>
+        <v>-13.62382502471429</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1480845902003698</v>
+        <v>-0.1264677481527444</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.764452901625964</v>
+        <v>22.08268140930302</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08498518767148942</v>
+        <v>0.09627880705902206</v>
       </c>
       <c r="H98" t="n">
-        <v>-24.77000071858307</v>
+        <v>-14.77274117621574</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1113840024853734</v>
+        <v>0.1148358097889537</v>
       </c>
       <c r="H99" t="n">
-        <v>6.043351053223086</v>
+        <v>9.329650750611968</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01862745397215999</v>
+        <v>0.008417739084958496</v>
       </c>
       <c r="H100" t="n">
-        <v>-28.1529914819508</v>
+        <v>-67.5323652580955</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02544646437878699</v>
+        <v>0.02965661325515004</v>
       </c>
       <c r="H101" t="n">
-        <v>92.11694325281468</v>
+        <v>123.9029281631748</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03415646920423786</v>
+        <v>-0.01505695816249306</v>
       </c>
       <c r="H102" t="n">
-        <v>-4107.235287930427</v>
+        <v>-1866.481591432998</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02348399365605087</v>
+        <v>0.02002335705006422</v>
       </c>
       <c r="H103" t="n">
-        <v>26.27894459528794</v>
+        <v>7.670289498874419</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06187026563084695</v>
+        <v>0.07041751385115277</v>
       </c>
       <c r="H104" t="n">
-        <v>32.0331382996476</v>
+        <v>50.2732411155373</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07260335237391345</v>
+        <v>0.05852845084355569</v>
       </c>
       <c r="H105" t="n">
-        <v>63.32225893189975</v>
+        <v>31.6605706348725</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2887023109240921</v>
+        <v>-0.3024098718880769</v>
       </c>
       <c r="H106" t="n">
-        <v>-9.103403892736058</v>
+        <v>4.787641304723302</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3008169896156152</v>
+        <v>-0.3145147033231336</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.648159607159174</v>
+        <v>-2.830295396429969</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2285441947033652</v>
+        <v>0.2450667076794988</v>
       </c>
       <c r="H108" t="n">
-        <v>3.894916996974231</v>
+        <v>11.40595929872627</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2506397156769977</v>
+        <v>0.2677224092482181</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5441933628372929</v>
+        <v>7.396920756592904</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0277237976389546</v>
+        <v>0.03239470883894226</v>
       </c>
       <c r="H110" t="n">
-        <v>625.3169569201694</v>
+        <v>747.5185088770728</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06311537681792719</v>
+        <v>0.03449858032203043</v>
       </c>
       <c r="H111" t="n">
-        <v>191.8131734921847</v>
+        <v>59.50376457052668</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.06405945824974528</v>
+        <v>0.05534444054613503</v>
       </c>
       <c r="H112" t="n">
-        <v>50.15297905192455</v>
+        <v>29.72530285170403</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06976076627476188</v>
+        <v>0.06860901113997527</v>
       </c>
       <c r="H113" t="n">
-        <v>107.0395373088671</v>
+        <v>103.6213000541309</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05801570998800794</v>
+        <v>0.06658316576153141</v>
       </c>
       <c r="H2" t="n">
-        <v>23.68957314546603</v>
+        <v>41.95540058752994</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.512958750012374</v>
+        <v>16.61052955023221</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02618921323035567</v>
+        <v>0.07148219989906737</v>
       </c>
       <c r="H3" t="n">
-        <v>-63.83022577958938</v>
+        <v>-1.276338147848469</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07929124686653789</v>
+        <v>0.07665313170576886</v>
       </c>
       <c r="H4" t="n">
-        <v>39.64956215254777</v>
+        <v>35.00325323865845</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02153190535507788</v>
+        <v>0.01649327437879864</v>
       </c>
       <c r="H5" t="n">
-        <v>50.42435075014906</v>
+        <v>15.22389910513704</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003489448926556768</v>
+        <v>0.003406631857378043</v>
       </c>
       <c r="H6" t="n">
-        <v>114.4999634742974</v>
+        <v>114.1558276226445</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0190269798424117</v>
+        <v>0.004054828296847468</v>
       </c>
       <c r="H7" t="n">
-        <v>157.4177139478667</v>
+        <v>112.2362546859457</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01918252542080588</v>
+        <v>0.02830248980558499</v>
       </c>
       <c r="H8" t="n">
-        <v>-38.76123349749388</v>
+        <v>-9.646434626178381</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03476261944527925</v>
+        <v>0.03964702010706433</v>
       </c>
       <c r="H9" t="n">
-        <v>112.7124025373339</v>
+        <v>142.6000409346279</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1371293773599172</v>
+        <v>-0.1386303119537871</v>
       </c>
       <c r="H10" t="n">
-        <v>13.53689750092413</v>
+        <v>12.59052507414962</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1589804158929685</v>
+        <v>-0.1593648906080995</v>
       </c>
       <c r="H11" t="n">
-        <v>2.129754032973786</v>
+        <v>1.893066798721569</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.105637501934655</v>
+        <v>-0.08561514815963796</v>
       </c>
       <c r="H12" t="n">
-        <v>-74.40461222194467</v>
+        <v>-41.34825645860501</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06817984201697395</v>
+        <v>-0.08087472513595326</v>
       </c>
       <c r="H13" t="n">
-        <v>28.94857732784463</v>
+        <v>15.71901446033827</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04641547282517424</v>
+        <v>-0.06319966164146465</v>
       </c>
       <c r="H14" t="n">
-        <v>47.30055966768496</v>
+        <v>28.24404029575104</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08023224685050057</v>
+        <v>-0.09342541319335482</v>
       </c>
       <c r="H15" t="n">
-        <v>18.57989137566249</v>
+        <v>5.191396363978232</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3138110208272471</v>
+        <v>-0.3249346212070774</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.662409449164661</v>
+        <v>-5.266017803588021</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2874553201476417</v>
+        <v>-0.2967753982939461</v>
       </c>
       <c r="H17" t="n">
-        <v>8.028078157426089</v>
+        <v>5.046099955045534</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1889581126049299</v>
+        <v>-0.171651358548797</v>
       </c>
       <c r="H18" t="n">
-        <v>-32.51722802459238</v>
+        <v>-20.3799186389023</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1268742959111323</v>
+        <v>-0.1755559199348866</v>
       </c>
       <c r="H19" t="n">
-        <v>18.18181673034321</v>
+        <v>-13.21179225590828</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1188365754311758</v>
+        <v>0.1025472177704425</v>
       </c>
       <c r="H20" t="n">
-        <v>-16.20104648737558</v>
+        <v>-27.68767104222789</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2557917144282116</v>
+        <v>0.2908993245307903</v>
       </c>
       <c r="H21" t="n">
-        <v>38.38580177161595</v>
+        <v>57.37935980452932</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1570309552368667</v>
+        <v>0.1297451844969146</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.6551927539785</v>
+        <v>-29.48474556952189</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.233313317206207</v>
+        <v>0.2089104285129091</v>
       </c>
       <c r="H23" t="n">
-        <v>39.62740304243609</v>
+        <v>25.02338465300416</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06156127719980787</v>
+        <v>0.07183286379262176</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.052868663741149</v>
+        <v>11.95604656155157</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05911327259898704</v>
+        <v>0.06420923264234367</v>
       </c>
       <c r="H25" t="n">
-        <v>79.75990345875428</v>
+        <v>95.2564111827938</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03850647493803609</v>
+        <v>0.0195938331912415</v>
       </c>
       <c r="H26" t="n">
-        <v>-28.70600903248772</v>
+        <v>-63.72239814724107</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06425959495283404</v>
+        <v>0.06505086705057447</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1167126952499682</v>
+        <v>1.11321815527673</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06808248899698113</v>
+        <v>-0.0618925576893566</v>
       </c>
       <c r="H28" t="n">
-        <v>-14.84516516675951</v>
+        <v>-4.403659665593763</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0769961137854183</v>
+        <v>-0.07956512654378628</v>
       </c>
       <c r="H29" t="n">
-        <v>-45.79421017046452</v>
+        <v>-50.65870485220828</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04631090398696186</v>
+        <v>0.0566388939627632</v>
       </c>
       <c r="H30" t="n">
-        <v>-39.85144019726231</v>
+        <v>-26.43745624919567</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05520587382505127</v>
+        <v>0.07266804946085832</v>
       </c>
       <c r="H31" t="n">
-        <v>-9.726932896881097</v>
+        <v>18.82735025663248</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09418016099688986</v>
+        <v>0.092182261099619</v>
       </c>
       <c r="H32" t="n">
-        <v>28.22548415776938</v>
+        <v>25.50536052541782</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07951428583412468</v>
+        <v>0.1218944188747815</v>
       </c>
       <c r="H33" t="n">
-        <v>-36.99309251703339</v>
+        <v>-3.411188415185695</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03593101813296511</v>
+        <v>0.04214560077500043</v>
       </c>
       <c r="H34" t="n">
-        <v>31.26974405126721</v>
+        <v>53.97398999794623</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02425924201381336</v>
+        <v>0.04110257995280894</v>
       </c>
       <c r="H35" t="n">
-        <v>-10.25324788805643</v>
+        <v>52.05846300084921</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02467860660003041</v>
+        <v>0.02001060771283099</v>
       </c>
       <c r="H36" t="n">
-        <v>-27.87229215950431</v>
+        <v>-41.51536631650571</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05177316093980693</v>
+        <v>0.06769362457055525</v>
       </c>
       <c r="H37" t="n">
-        <v>-25.41001832814364</v>
+        <v>-2.473286846640985</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2563907596259163</v>
+        <v>-0.2453212376243404</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.702236535002528</v>
+        <v>-2.095429500829785</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.242339445822569</v>
+        <v>-0.2696874226785558</v>
       </c>
       <c r="H39" t="n">
-        <v>9.812145640277766</v>
+        <v>-0.3655427065323834</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1275803107133267</v>
+        <v>0.1380936631074313</v>
       </c>
       <c r="H40" t="n">
-        <v>2.101545433643875</v>
+        <v>10.5153008252464</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1397205733766587</v>
+        <v>0.1476323826347184</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.422876772976516</v>
+        <v>-0.06735796093288685</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1159415338433903</v>
+        <v>0.1294868981324778</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.829603633696221</v>
+        <v>8.522742443374796</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1572102232917149</v>
+        <v>0.1480061172390414</v>
       </c>
       <c r="H43" t="n">
-        <v>12.38706887472796</v>
+        <v>5.807200980560077</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1234950226536425</v>
+        <v>-0.1053140787822375</v>
       </c>
       <c r="H44" t="n">
-        <v>-33.06688356856673</v>
+        <v>-13.47676981889701</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1343148763717318</v>
+        <v>-0.08417735697149485</v>
       </c>
       <c r="H45" t="n">
-        <v>1.009613743979377</v>
+        <v>37.96108587735756</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1080172502309526</v>
+        <v>0.09124974789589373</v>
       </c>
       <c r="H46" t="n">
-        <v>-9.723030434186459</v>
+        <v>-23.73671153382861</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1147777674887009</v>
+        <v>0.1123473497159982</v>
       </c>
       <c r="H47" t="n">
-        <v>6.453692911888174</v>
+        <v>4.199537312909843</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02549551561796576</v>
+        <v>0.01352621368321626</v>
       </c>
       <c r="H48" t="n">
-        <v>174.9963063611008</v>
+        <v>45.89462938001319</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04199593458337898</v>
+        <v>0.01749501652467519</v>
       </c>
       <c r="H49" t="n">
-        <v>-28.14318957284588</v>
+        <v>-70.06529088339281</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02199379136026544</v>
+        <v>0.0198864435525419</v>
       </c>
       <c r="H50" t="n">
-        <v>-36.25044791541743</v>
+        <v>-42.3586480264501</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04007954068550663</v>
+        <v>0.01662106387299818</v>
       </c>
       <c r="H51" t="n">
-        <v>1.963108713524132</v>
+        <v>-57.71569949079321</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.004008149859871878</v>
+        <v>-0.003271993381413161</v>
       </c>
       <c r="H52" t="n">
-        <v>34.917063365987</v>
+        <v>46.87051498712432</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.004427346560307322</v>
+        <v>-0.002447904841307175</v>
       </c>
       <c r="H53" t="n">
-        <v>7.274153277058591</v>
+        <v>48.73135725529485</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08478254899380001</v>
+        <v>0.05609670294886434</v>
       </c>
       <c r="H54" t="n">
-        <v>92.00274373851937</v>
+        <v>27.0393613862009</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06617259308948756</v>
+        <v>0.09864874533158628</v>
       </c>
       <c r="H55" t="n">
-        <v>-16.52116066879386</v>
+        <v>24.44854247473673</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08632031976216663</v>
+        <v>0.1074101322292035</v>
       </c>
       <c r="H56" t="n">
-        <v>-13.74230689050423</v>
+        <v>7.332204609577165</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08704899505567754</v>
+        <v>0.1070221411721716</v>
       </c>
       <c r="H57" t="n">
-        <v>-21.13930826661664</v>
+        <v>-3.044945226225291</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.006424089236419152</v>
+        <v>0.02546318834056186</v>
       </c>
       <c r="H58" t="n">
-        <v>958.4812704652032</v>
+        <v>4095.506468374673</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02199565454351642</v>
+        <v>0.02350253207405333</v>
       </c>
       <c r="H59" t="n">
-        <v>250.8753301900142</v>
+        <v>274.9130850127686</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01195513749532255</v>
+        <v>0.01984870795082988</v>
       </c>
       <c r="H60" t="n">
-        <v>39.4069866637416</v>
+        <v>131.4526759459229</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.006115672656045603</v>
+        <v>-0.0005106474806932835</v>
       </c>
       <c r="H61" t="n">
-        <v>143.1533470025755</v>
+        <v>96.39677445643457</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02938514959038555</v>
+        <v>-0.04485946382460141</v>
       </c>
       <c r="H62" t="n">
-        <v>39.04484774963889</v>
+        <v>6.94566863145009</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.04432570233174669</v>
+        <v>-0.06163535225087091</v>
       </c>
       <c r="H63" t="n">
-        <v>45.01185871114289</v>
+        <v>23.53841496760753</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05557707503474998</v>
+        <v>0.05884422177118419</v>
       </c>
       <c r="H64" t="n">
-        <v>-9.984590826708409</v>
+        <v>-4.692956638953375</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0768238019579137</v>
+        <v>0.075537984196557</v>
       </c>
       <c r="H65" t="n">
-        <v>15.29981289096732</v>
+        <v>13.37001322578635</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1798468407179752</v>
+        <v>0.1935400412384357</v>
       </c>
       <c r="H66" t="n">
-        <v>-15.61711537605272</v>
+        <v>-9.192361096034338</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2229863205273689</v>
+        <v>0.2142782451223998</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5987119057218396</v>
+        <v>-3.329875134263275</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1050876777988762</v>
+        <v>-0.1033482953534764</v>
       </c>
       <c r="H68" t="n">
-        <v>-22.01011742249025</v>
+        <v>-19.990639393753</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07816630033172745</v>
+        <v>-0.07943779766390115</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.741516110728361</v>
+        <v>-3.396501261069298</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1451547727374596</v>
+        <v>-0.153214361301489</v>
       </c>
       <c r="H70" t="n">
-        <v>-4.546849972963349</v>
+        <v>-10.35172004755197</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1100398199694621</v>
+        <v>-0.1546163906068871</v>
       </c>
       <c r="H71" t="n">
-        <v>24.87040825271335</v>
+        <v>-5.564206729510667</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1564374980759013</v>
+        <v>0.14727046590465</v>
       </c>
       <c r="H72" t="n">
-        <v>-5.420817471696544</v>
+        <v>-10.96303349810566</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1454024488683665</v>
+        <v>0.1343162741514352</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9314336917170691</v>
+        <v>-6.764059176836514</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03730553212597289</v>
+        <v>-0.03574246023553095</v>
       </c>
       <c r="H74" t="n">
-        <v>-41.07839675418811</v>
+        <v>-35.16732502438537</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04791554444941214</v>
+        <v>-0.04822359396793376</v>
       </c>
       <c r="H75" t="n">
-        <v>-30.43766828193273</v>
+        <v>-31.27625336685763</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0006184509525634008</v>
+        <v>-0.002281090150557555</v>
       </c>
       <c r="H76" t="n">
-        <v>-97.43505071544715</v>
+        <v>-109.4605409295952</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0006527120072067959</v>
+        <v>0.01726037942964227</v>
       </c>
       <c r="H77" t="n">
-        <v>106.8411306946765</v>
+        <v>280.9075215625332</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06068633566572244</v>
+        <v>0.06804491533388701</v>
       </c>
       <c r="H78" t="n">
-        <v>-19.95103356712007</v>
+        <v>-10.24461958794666</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08109734019664319</v>
+        <v>0.0728101993561061</v>
       </c>
       <c r="H79" t="n">
-        <v>1.290809199304096</v>
+        <v>-9.059853345869596</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06706576457418698</v>
+        <v>0.07989379606996523</v>
       </c>
       <c r="H80" t="n">
-        <v>2.820090470866107</v>
+        <v>22.48704524777033</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07143408608923214</v>
+        <v>0.06846846687888285</v>
       </c>
       <c r="H81" t="n">
-        <v>92.20825000270464</v>
+        <v>84.22863537050227</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05834168358596916</v>
+        <v>0.04635683236600088</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5385374886818861</v>
+        <v>-20.11461030571664</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07068378843440165</v>
+        <v>0.07709047890284275</v>
       </c>
       <c r="H83" t="n">
-        <v>10.42518727586469</v>
+        <v>20.43398859319457</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.02777862620871726</v>
+        <v>-0.0194408904896836</v>
       </c>
       <c r="H84" t="n">
-        <v>-233.3531080655189</v>
+        <v>-133.2973999363476</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.006018972365204528</v>
+        <v>-0.01366909201277766</v>
       </c>
       <c r="H85" t="n">
-        <v>-55.47232611407983</v>
+        <v>-253.0778016824667</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01671599776346748</v>
+        <v>0.0361105082515276</v>
       </c>
       <c r="H86" t="n">
-        <v>-33.89530075638449</v>
+        <v>42.80178313485043</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02953649434909315</v>
+        <v>0.02239894687321546</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.2225322516982791</v>
+        <v>-24.33393845513027</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03059334266060804</v>
+        <v>-0.01735136239130964</v>
       </c>
       <c r="H88" t="n">
-        <v>-59.58413034474643</v>
+        <v>9.490044673050608</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01019893498443096</v>
+        <v>-0.00814854838645189</v>
       </c>
       <c r="H89" t="n">
-        <v>36.54856807543948</v>
+        <v>49.30479858767459</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05198583203672152</v>
+        <v>-0.04035920522340222</v>
       </c>
       <c r="H90" t="n">
-        <v>-91.19945299806975</v>
+        <v>-48.43771196545409</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03392878394898997</v>
+        <v>-0.04068971945350768</v>
       </c>
       <c r="H91" t="n">
-        <v>-1411.042428972887</v>
+        <v>-1672.291795271964</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01201046318395857</v>
+        <v>-0.007154250019443216</v>
       </c>
       <c r="H92" t="n">
-        <v>45.85400533931671</v>
+        <v>67.74695718052318</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.007669711045574366</v>
+        <v>-0.03571979354883011</v>
       </c>
       <c r="H93" t="n">
-        <v>84.01809861677593</v>
+        <v>25.56822355700949</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0125318477061189</v>
+        <v>0.01440296684196005</v>
       </c>
       <c r="H94" t="n">
-        <v>-13.18660613954744</v>
+        <v>-0.2245748167207114</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01730942008243278</v>
+        <v>0.02036212465208914</v>
       </c>
       <c r="H95" t="n">
-        <v>-37.21890069832954</v>
+        <v>-26.14677073594185</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1334643468194203</v>
+        <v>-0.1245209976150607</v>
       </c>
       <c r="H96" t="n">
-        <v>-13.62382502471429</v>
+        <v>-6.00997481417096</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1264677481527444</v>
+        <v>-0.1285513435880701</v>
       </c>
       <c r="H97" t="n">
-        <v>22.08268140930302</v>
+        <v>20.79896938216773</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09627880705902206</v>
+        <v>0.09446598216583221</v>
       </c>
       <c r="H98" t="n">
-        <v>-14.77274117621574</v>
+        <v>-16.37747747378302</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1148358097889537</v>
+        <v>0.1319553645762097</v>
       </c>
       <c r="H99" t="n">
-        <v>9.329650750611968</v>
+        <v>25.6283553910586</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008417739084958496</v>
+        <v>-0.001113582342097312</v>
       </c>
       <c r="H100" t="n">
-        <v>-67.5323652580955</v>
+        <v>-104.2951420058689</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02965661325515004</v>
+        <v>0.03475632555538972</v>
       </c>
       <c r="H101" t="n">
-        <v>123.9029281631748</v>
+        <v>162.4049818868966</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01505695816249306</v>
+        <v>-0.01589813435172797</v>
       </c>
       <c r="H102" t="n">
-        <v>-1866.481591432998</v>
+        <v>-1965.16834060234</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02002335705006422</v>
+        <v>0.01909274448912373</v>
       </c>
       <c r="H103" t="n">
-        <v>7.670289498874419</v>
+        <v>2.666167383026215</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07041751385115277</v>
+        <v>0.07141827797979911</v>
       </c>
       <c r="H104" t="n">
-        <v>50.2732411155373</v>
+        <v>52.40890397807087</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05852845084355569</v>
+        <v>0.05370763068999474</v>
       </c>
       <c r="H105" t="n">
-        <v>31.6605706348725</v>
+        <v>20.81606812031783</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3024098718880769</v>
+        <v>-0.2840034770915245</v>
       </c>
       <c r="H106" t="n">
-        <v>4.787641304723302</v>
+        <v>10.58281013540497</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3145147033231336</v>
+        <v>-0.3081319171013934</v>
       </c>
       <c r="H107" t="n">
-        <v>-2.830295396429969</v>
+        <v>-0.7434492626914355</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2450667076794988</v>
+        <v>0.2396473227218772</v>
       </c>
       <c r="H108" t="n">
-        <v>11.40595929872627</v>
+        <v>8.942337104876435</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2677224092482181</v>
+        <v>0.2493042771705282</v>
       </c>
       <c r="H109" t="n">
-        <v>7.396920756592904</v>
+        <v>0.008481825437981221</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03239470883894226</v>
+        <v>0.006104129500683564</v>
       </c>
       <c r="H110" t="n">
-        <v>747.5185088770728</v>
+        <v>59.69776910582674</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03449858032203043</v>
+        <v>0.04784369058496769</v>
       </c>
       <c r="H111" t="n">
-        <v>59.50376457052668</v>
+        <v>121.2047188033582</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.05534444054613503</v>
+        <v>0.05765524500372233</v>
       </c>
       <c r="H112" t="n">
-        <v>29.72530285170403</v>
+        <v>35.1417422471243</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06860901113997527</v>
+        <v>0.0507214156477757</v>
       </c>
       <c r="H113" t="n">
-        <v>103.6213000541309</v>
+        <v>50.53358769032611</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>